--- a/ziyuan/栅格模板.xlsx
+++ b/ziyuan/栅格模板.xlsx
@@ -35,9 +35,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -79,7 +78,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -389,10 +388,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -423,27 +422,27 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43335</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43337</v>
       </c>
       <c r="B8" t="n">
@@ -451,7 +450,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43338</v>
       </c>
       <c r="B9" t="n">
@@ -459,7 +458,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43339</v>
       </c>
       <c r="B10" t="n">
@@ -467,7 +466,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43340</v>
       </c>
       <c r="B11" t="n">
@@ -475,7 +474,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="B12" t="n">
@@ -483,7 +482,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43342</v>
       </c>
       <c r="B13" t="n">
@@ -491,7 +490,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>43343</v>
       </c>
       <c r="B14" t="n">
@@ -499,7 +498,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>43344</v>
       </c>
       <c r="B15" t="n">
@@ -507,7 +506,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>43345</v>
       </c>
       <c r="B16" t="n">
@@ -515,7 +514,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>43346</v>
       </c>
       <c r="B17" t="n">
@@ -523,7 +522,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>43347</v>
       </c>
       <c r="B18" t="n">
@@ -531,7 +530,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>43348</v>
       </c>
       <c r="B19" t="n">
@@ -539,7 +538,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>43349</v>
       </c>
       <c r="B20" t="n">
@@ -547,7 +546,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>43350</v>
       </c>
       <c r="B21" t="n">
@@ -555,7 +554,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>43351</v>
       </c>
       <c r="B22" t="n">
@@ -563,7 +562,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>43352</v>
       </c>
       <c r="B23" t="n">
@@ -571,7 +570,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="B24" t="n">
@@ -579,7 +578,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>43354</v>
       </c>
       <c r="B25" t="n">
@@ -587,7 +586,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>43355</v>
       </c>
       <c r="B26" t="n">
@@ -595,7 +594,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>43356</v>
       </c>
       <c r="B27" t="n">
@@ -603,7 +602,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>43357</v>
       </c>
       <c r="B28" t="n">
@@ -611,7 +610,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>43358</v>
       </c>
       <c r="B29" t="n">
@@ -619,7 +618,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>43359</v>
       </c>
       <c r="B30" t="n">
@@ -627,7 +626,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>43360</v>
       </c>
       <c r="B31" t="n">
@@ -635,7 +634,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>43361</v>
       </c>
       <c r="B32" t="n">
@@ -643,43 +642,43 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>43362</v>
       </c>
       <c r="B33" t="n">
-        <v>32310</v>
+        <v>32030</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>43363</v>
       </c>
       <c r="B34" t="n">
-        <v>26030</v>
+        <v>25750</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="B35" t="n">
-        <v>43940</v>
+        <v>43060</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>43365</v>
       </c>
       <c r="B36" t="n">
-        <v>46930</v>
+        <v>46670</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>43366</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -760,6 +759,117 @@
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="n">
         <v>43365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="n">
+        <v>43366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="n">
+        <v>43367</v>
+      </c>
+      <c r="B55" t="n">
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="n">
+        <v>43368</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="n">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="n">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="n">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="n">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="n">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="n">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="n">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="n">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="n">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="n">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="n">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="n">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="n">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="n">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="n">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="n">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="n">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="n">
+        <v>43386</v>
       </c>
     </row>
   </sheetData>
